--- a/pred_ohlcv/54_21/2020-01-25 LINK ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 LINK ohlcv.xlsx
@@ -6450,7 +6450,7 @@
         <v>-1607.198640403903</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-900.6176404039035</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-900.4176404039034</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>8126.265078081235</v>
       </c>
       <c r="H280">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>7772.957878081234</v>
       </c>
       <c r="H281">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>7772.957878081234</v>
       </c>
       <c r="H282">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>7711.962678081234</v>
       </c>
       <c r="H284">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>15895.84902042877</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>16190.35191545873</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>16662.57395298067</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>16648.20965298067</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>16649.20859960988</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>16558.37589960988</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>16547.37589960988</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>16567.16859960989</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>15653.15149960988</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>15954.15149960988</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>15954.15149960988</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>16438.63779960989</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>16339.63779960989</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>17183.22029960989</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>17183.22029960989</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>17183.22029960989</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>17183.22029960989</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>19272.44969960989</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>19322.44969960989</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>19429.43859960989</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>19274.66289960989</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>19887.82039960989</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>19988.29569960989</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>19988.29569960989</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>20091.17649960989</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>20091.17649960989</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>20505.30499960989</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>20506.75499960989</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>20996.23089960989</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>25478.24091724896</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>26901.57175703829</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>25883.87175703829</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>23890.42695703829</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>23890.42695703829</v>
       </c>
       <c r="H427">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>23856.25075703829</v>
       </c>
       <c r="H428">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>23543.87465703829</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>24164.61195703829</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>20004.83695703829</v>
       </c>
       <c r="H431">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>21843.85175703829</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>22144.85175703829</v>
       </c>
       <c r="H433">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>21938.52915703829</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>21954.01905703829</v>
       </c>
       <c r="H435">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>21951.33275703829</v>
       </c>
       <c r="H436">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>21978.51875703829</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>21910.19645703829</v>
       </c>
       <c r="H438">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>21888.52395703829</v>
       </c>
       <c r="H439">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>21959.93995703829</v>
       </c>
       <c r="H440">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>21960.93995703829</v>
       </c>
       <c r="H441">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>21460.93995703829</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>21460.93995703829</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>22584.86685703829</v>
       </c>
       <c r="H445">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>22351.58805703829</v>
       </c>
       <c r="H446">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>22355.70285703829</v>
       </c>
       <c r="H447">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>22352.18465703829</v>
       </c>
       <c r="H448">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>22338.27635703829</v>
       </c>
       <c r="H451">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>22190.58005703829</v>
       </c>
       <c r="H454">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>21882.77275703829</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>21128.38255703829</v>
       </c>
       <c r="H460">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>21128.38255703829</v>
       </c>
       <c r="H461">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>21128.38255703829</v>
       </c>
       <c r="H462">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>21031.52805703829</v>
       </c>
       <c r="H463">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-25 LINK ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 LINK ohlcv.xlsx
@@ -6450,7 +6450,7 @@
         <v>-1607.198640403903</v>
       </c>
       <c r="H233">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-900.6176404039035</v>
       </c>
       <c r="H234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-900.4176404039034</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>8403.943340137715</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>8126.265078081235</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>7772.957878081234</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>7772.957878081234</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>7711.962678081234</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>9434.417731284273</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>15895.84902042877</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>16190.35191545873</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>16662.57395298067</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>16648.20965298067</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>16649.20859960988</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>16558.37589960988</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>16547.37589960988</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>16567.16859960989</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>15653.15149960988</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>15954.15149960988</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>15954.15149960988</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>16438.63779960989</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>16339.63779960989</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>17183.22029960989</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>17183.22029960989</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>17183.22029960989</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>17183.22029960989</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>19272.44969960989</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>19322.44969960989</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>19429.43859960989</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>19274.66289960989</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>19887.82039960989</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>19988.29569960989</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>19988.29569960989</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>20091.17649960989</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>20091.17649960989</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>20505.30499960989</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>20506.75499960989</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>20996.23089960989</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>22866.73149960989</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>22893.83449960989</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>26130.03499960988</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>25478.24091724896</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>26901.57175703829</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>25883.87175703829</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>23890.42695703829</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>23890.42695703829</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>23856.25075703829</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>23543.87465703829</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>24164.61195703829</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>20004.83695703829</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>21843.85175703829</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>21938.52915703829</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>21954.01905703829</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>21460.93995703829</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>21460.93995703829</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>22344.26975703829</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>22584.86685703829</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>22351.58805703829</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>22355.70285703829</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>22352.18465703829</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>22353.18465703829</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>22190.58005703829</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>21882.77275703829</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>21882.77275703829</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>21128.38255703829</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:8">
